--- a/ALS_data/Log 2016-03-29T20-10-40.090/plots/threadLogger.xlsx
+++ b/ALS_data/Log 2016-03-29T20-10-40.090/plots/threadLogger.xlsx
@@ -22,22 +22,22 @@
     <t>thread name</t>
   </si>
   <si>
-    <t xml:space="preserve"> total move</t>
+    <t>total move</t>
   </si>
   <si>
     <t>alive_time</t>
   </si>
   <si>
-    <t xml:space="preserve">total food count </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> total poison count </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> total children count</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dna</t>
+    <t>total food count</t>
+  </si>
+  <si>
+    <t>total poison count</t>
+  </si>
+  <si>
+    <t>total children count</t>
+  </si>
+  <si>
+    <t>dna</t>
   </si>
   <si>
     <t>gendar</t>
@@ -52,7 +52,7 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>Thread-86</t>
+    <t>86</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTATGTAA</t>
@@ -61,13 +61,13 @@
     <t>female</t>
   </si>
   <si>
-    <t>Thread-87</t>
+    <t>87</t>
   </si>
   <si>
     <t xml:space="preserve"> TAATTGGTGC</t>
   </si>
   <si>
-    <t>Thread-88</t>
+    <t>88</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCTACGTCA</t>
@@ -76,865 +76,865 @@
     <t>male</t>
   </si>
   <si>
-    <t>Thread-90</t>
+    <t>90</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAACATCTG</t>
   </si>
   <si>
-    <t>Thread-91</t>
+    <t>91</t>
   </si>
   <si>
     <t xml:space="preserve"> GTAATGTTGT</t>
   </si>
   <si>
-    <t>Thread-93</t>
+    <t>93</t>
   </si>
   <si>
     <t xml:space="preserve"> AATCGTGTAG</t>
   </si>
   <si>
-    <t>Thread-29</t>
+    <t>29</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTAAATCT</t>
   </si>
   <si>
-    <t>Thread-94</t>
+    <t>94</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCGGAAGCG</t>
   </si>
   <si>
-    <t>Thread-77</t>
+    <t>77</t>
   </si>
   <si>
     <t xml:space="preserve"> TGCATCCCCT</t>
   </si>
   <si>
-    <t>Thread-43</t>
+    <t>43</t>
   </si>
   <si>
     <t xml:space="preserve"> AGCTTCGTCG</t>
   </si>
   <si>
-    <t>Thread-38</t>
+    <t>38</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCCCCTTCG</t>
   </si>
   <si>
-    <t>Thread-16</t>
+    <t>16</t>
   </si>
   <si>
     <t xml:space="preserve"> TACTTTCTTG</t>
   </si>
   <si>
-    <t>Thread-31</t>
+    <t>31</t>
   </si>
   <si>
     <t xml:space="preserve"> ACAGTGGCTC</t>
   </si>
   <si>
-    <t>Thread-21</t>
+    <t>21</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCGAACATA</t>
   </si>
   <si>
-    <t>Thread-36</t>
+    <t>36</t>
   </si>
   <si>
     <t xml:space="preserve"> GAACGCTGTG</t>
   </si>
   <si>
-    <t>Thread-50</t>
+    <t>50</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCCATTAAC</t>
   </si>
   <si>
-    <t>Thread-19</t>
+    <t>19</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGCGATAAA</t>
   </si>
   <si>
-    <t>Thread-45</t>
+    <t>45</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGGCGGGCC</t>
   </si>
   <si>
-    <t>Thread-20</t>
+    <t>20</t>
   </si>
   <si>
     <t xml:space="preserve"> ATACTTCTAG</t>
   </si>
   <si>
-    <t>Thread-44</t>
+    <t>44</t>
   </si>
   <si>
     <t xml:space="preserve"> ACGGAGTTGA</t>
   </si>
   <si>
-    <t>Thread-8</t>
+    <t>8</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAAAGCGTA</t>
   </si>
   <si>
-    <t>Thread-18</t>
+    <t>18</t>
   </si>
   <si>
     <t xml:space="preserve"> CAGAGCCGAG</t>
   </si>
   <si>
-    <t>Thread-24</t>
+    <t>24</t>
   </si>
   <si>
     <t xml:space="preserve"> GAAGACGGCT</t>
   </si>
   <si>
-    <t>Thread-9</t>
+    <t>9</t>
   </si>
   <si>
     <t xml:space="preserve"> AGACCATGTT</t>
   </si>
   <si>
-    <t>Thread-7</t>
+    <t>7</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTAACTCGA</t>
   </si>
   <si>
-    <t>Thread-34</t>
+    <t>34</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTGCCCGGA</t>
   </si>
   <si>
-    <t>Thread-15</t>
+    <t>15</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCATACCAC</t>
   </si>
   <si>
-    <t>Thread-27</t>
+    <t>27</t>
   </si>
   <si>
     <t xml:space="preserve"> GAAGCAACCA</t>
   </si>
   <si>
-    <t>Thread-17</t>
+    <t>17</t>
   </si>
   <si>
     <t xml:space="preserve"> TCACAACAGC</t>
   </si>
   <si>
-    <t>Thread-12</t>
+    <t>12</t>
   </si>
   <si>
     <t xml:space="preserve"> CCACTAGGCC</t>
   </si>
   <si>
-    <t>Thread-35</t>
+    <t>35</t>
   </si>
   <si>
     <t xml:space="preserve"> TACGATTACA</t>
   </si>
   <si>
-    <t>Thread-10</t>
+    <t>10</t>
   </si>
   <si>
     <t xml:space="preserve"> GATCGAACTC</t>
   </si>
   <si>
-    <t>Thread-51</t>
+    <t>51</t>
   </si>
   <si>
     <t xml:space="preserve"> GGAGTCTTAG</t>
   </si>
   <si>
-    <t>Thread-62</t>
+    <t>62</t>
   </si>
   <si>
     <t xml:space="preserve"> TTAAGCGGAC</t>
   </si>
   <si>
-    <t>Thread-72</t>
+    <t>72</t>
   </si>
   <si>
     <t xml:space="preserve"> GACCCTAACC</t>
   </si>
   <si>
-    <t>Thread-69</t>
+    <t>69</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCCCCGCGG</t>
   </si>
   <si>
-    <t>Thread-67</t>
+    <t>67</t>
   </si>
   <si>
     <t xml:space="preserve"> CCTAGCGATC</t>
   </si>
   <si>
-    <t>Thread-64</t>
+    <t>64</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTTTTCGGG</t>
   </si>
   <si>
-    <t>Thread-65</t>
+    <t>65</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCGTACGAA</t>
   </si>
   <si>
-    <t>Thread-66</t>
+    <t>66</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTAGCCTGT</t>
   </si>
   <si>
-    <t>Thread-73</t>
+    <t>73</t>
   </si>
   <si>
     <t xml:space="preserve"> GTACCTTCGC</t>
   </si>
   <si>
-    <t>Thread-60</t>
+    <t>60</t>
   </si>
   <si>
     <t xml:space="preserve"> CCTTGCTGGT</t>
   </si>
   <si>
-    <t>Thread-79</t>
+    <t>79</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTATGTCTC</t>
   </si>
   <si>
-    <t>Thread-95</t>
+    <t>95</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTTTCGTCG</t>
   </si>
   <si>
-    <t>Thread-96</t>
+    <t>96</t>
   </si>
   <si>
     <t xml:space="preserve"> GATTGGAGAG</t>
   </si>
   <si>
-    <t>Thread-97</t>
-  </si>
-  <si>
-    <t>Thread-101</t>
+    <t>97</t>
+  </si>
+  <si>
+    <t>101</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTGCACACC</t>
   </si>
   <si>
-    <t>Thread-102</t>
+    <t>102</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAGTTAACT</t>
   </si>
   <si>
-    <t>Thread-83</t>
+    <t>83</t>
   </si>
   <si>
     <t xml:space="preserve"> TAGTGCCGTT</t>
   </si>
   <si>
-    <t>Thread-80</t>
+    <t>80</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAATTTCGG</t>
   </si>
   <si>
-    <t>Thread-104</t>
+    <t>104</t>
   </si>
   <si>
     <t xml:space="preserve"> TGGCTACGGT</t>
   </si>
   <si>
-    <t>Thread-26</t>
+    <t>26</t>
   </si>
   <si>
     <t xml:space="preserve"> CAGTTGTTCG</t>
   </si>
   <si>
-    <t>Thread-52</t>
+    <t>52</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTGACGCTG</t>
   </si>
   <si>
-    <t>Thread-25</t>
+    <t>25</t>
   </si>
   <si>
     <t xml:space="preserve"> TGCTGATCAT</t>
   </si>
   <si>
-    <t>Thread-22</t>
+    <t>22</t>
   </si>
   <si>
     <t xml:space="preserve"> TGAAACGCTG</t>
   </si>
   <si>
-    <t>Thread-28</t>
+    <t>28</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGCACAAT</t>
   </si>
   <si>
-    <t>Thread-75</t>
+    <t>75</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAGTCCGAG</t>
   </si>
   <si>
-    <t>Thread-14</t>
+    <t>14</t>
   </si>
   <si>
     <t xml:space="preserve"> GGATCTAACC</t>
   </si>
   <si>
-    <t>Thread-63</t>
+    <t>63</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTCCCAGGA</t>
   </si>
   <si>
-    <t>Thread-55</t>
+    <t>55</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTCATAGCT</t>
   </si>
   <si>
-    <t>Thread-78</t>
+    <t>78</t>
   </si>
   <si>
     <t xml:space="preserve"> GGAAGATGGC</t>
   </si>
   <si>
-    <t>Thread-89</t>
+    <t>89</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTATCTTCG</t>
   </si>
   <si>
-    <t>Thread-71</t>
+    <t>71</t>
   </si>
   <si>
     <t xml:space="preserve"> AATATGGGTT</t>
   </si>
   <si>
-    <t>Thread-74</t>
+    <t>74</t>
   </si>
   <si>
     <t xml:space="preserve"> TGGATGTTGT</t>
   </si>
   <si>
-    <t>Thread-41</t>
+    <t>41</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAACTAAAG</t>
   </si>
   <si>
-    <t>Thread-70</t>
+    <t>70</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTAATGTAA</t>
   </si>
   <si>
-    <t>Thread-108</t>
+    <t>108</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCGTCTTCG</t>
   </si>
   <si>
-    <t>Thread-109</t>
+    <t>109</t>
   </si>
   <si>
     <t xml:space="preserve"> AATCGTGAGA</t>
   </si>
   <si>
-    <t>Thread-5</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCGGGCATG</t>
   </si>
   <si>
-    <t>Thread-111</t>
+    <t>111</t>
   </si>
   <si>
     <t xml:space="preserve"> TGGCGATGCT</t>
   </si>
   <si>
-    <t>Thread-98</t>
+    <t>98</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCTGATGTC</t>
   </si>
   <si>
-    <t>Thread-57</t>
+    <t>57</t>
   </si>
   <si>
     <t xml:space="preserve"> AATCGTGACA</t>
   </si>
   <si>
-    <t>Thread-99</t>
+    <t>99</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCTACGGCA</t>
   </si>
   <si>
-    <t>Thread-112</t>
+    <t>112</t>
   </si>
   <si>
     <t xml:space="preserve"> ACGCCGGGAC</t>
   </si>
   <si>
-    <t>Thread-4</t>
+    <t>4</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCGCGATTT</t>
   </si>
   <si>
-    <t>Thread-39</t>
+    <t>39</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGGATCCTT</t>
   </si>
   <si>
-    <t>Thread-58</t>
+    <t>58</t>
   </si>
   <si>
     <t xml:space="preserve"> TTACCGGGAC</t>
   </si>
   <si>
-    <t>Thread-100</t>
+    <t>100</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAACTAAAG</t>
   </si>
   <si>
-    <t>Thread-92</t>
-  </si>
-  <si>
-    <t>Thread-113</t>
+    <t>92</t>
+  </si>
+  <si>
+    <t>113</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGATTCCTA</t>
   </si>
   <si>
-    <t>Thread-32</t>
+    <t>32</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCGGACGCG</t>
   </si>
   <si>
-    <t>Thread-76</t>
+    <t>76</t>
   </si>
   <si>
     <t xml:space="preserve"> TAGGATGGCC</t>
   </si>
   <si>
-    <t>Thread-30</t>
+    <t>30</t>
   </si>
   <si>
     <t xml:space="preserve"> GCATTGGCAC</t>
   </si>
   <si>
-    <t>Thread-37</t>
+    <t>37</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCATATGTC</t>
   </si>
   <si>
-    <t>Thread-11</t>
+    <t>11</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTCATCTG</t>
   </si>
   <si>
-    <t>Thread-116</t>
+    <t>116</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAGTCCCGA</t>
   </si>
   <si>
-    <t>Thread-54</t>
+    <t>54</t>
   </si>
   <si>
     <t xml:space="preserve"> TAATCCCTGC</t>
   </si>
   <si>
-    <t>Thread-117</t>
+    <t>117</t>
   </si>
   <si>
     <t xml:space="preserve"> TTAATAGAGT</t>
   </si>
   <si>
-    <t>Thread-61</t>
+    <t>61</t>
   </si>
   <si>
     <t xml:space="preserve"> ACGCTCTGAC</t>
   </si>
   <si>
-    <t>Thread-68</t>
+    <t>68</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGAGACCC</t>
   </si>
   <si>
-    <t>Thread-119</t>
+    <t>119</t>
   </si>
   <si>
     <t xml:space="preserve"> AACTCAAGAG</t>
   </si>
   <si>
-    <t>Thread-106</t>
-  </si>
-  <si>
-    <t>Thread-103</t>
+    <t>106</t>
+  </si>
+  <si>
+    <t>103</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCGTTCCCG</t>
   </si>
   <si>
-    <t>Thread-40</t>
-  </si>
-  <si>
-    <t>Thread-33</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTATCTTCC</t>
   </si>
   <si>
-    <t>Thread-120</t>
+    <t>120</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTCATAGTT</t>
   </si>
   <si>
-    <t>Thread-121</t>
+    <t>121</t>
   </si>
   <si>
     <t xml:space="preserve"> AATATATGTA</t>
   </si>
   <si>
-    <t>Thread-123</t>
-  </si>
-  <si>
-    <t>Thread-48</t>
+    <t>123</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
   <si>
     <t xml:space="preserve"> TTGTGTACCA</t>
   </si>
   <si>
-    <t>Thread-46</t>
+    <t>46</t>
   </si>
   <si>
     <t xml:space="preserve"> TATTACAGTG</t>
   </si>
   <si>
-    <t>Thread-110</t>
+    <t>110</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTCGATAAT</t>
   </si>
   <si>
-    <t>Thread-105</t>
+    <t>105</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCGGGCAGG</t>
   </si>
   <si>
-    <t>Thread-23</t>
+    <t>23</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCCGGGGGG</t>
   </si>
   <si>
-    <t>Thread-53</t>
+    <t>53</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTGGTCAG</t>
   </si>
   <si>
-    <t>Thread-126</t>
+    <t>126</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTATATAAT</t>
   </si>
   <si>
-    <t>Thread-128</t>
+    <t>128</t>
   </si>
   <si>
     <t xml:space="preserve"> TGCTACCCCG</t>
   </si>
   <si>
-    <t>Thread-129</t>
+    <t>129</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTATTAGTT</t>
   </si>
   <si>
-    <t>Thread-81</t>
+    <t>81</t>
   </si>
   <si>
     <t xml:space="preserve"> AATTTCCCGA</t>
   </si>
   <si>
-    <t>Thread-6</t>
+    <t>6</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTAAGTAGG</t>
   </si>
   <si>
-    <t>Thread-42</t>
+    <t>42</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTGTGTTCT</t>
   </si>
   <si>
-    <t>Thread-47</t>
+    <t>47</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGTGCCAGG</t>
   </si>
   <si>
-    <t>Thread-130</t>
-  </si>
-  <si>
-    <t>Thread-59</t>
+    <t>130</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGATTGTTA</t>
   </si>
   <si>
-    <t>Thread-131</t>
+    <t>131</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTAATCCGA</t>
   </si>
   <si>
-    <t>Thread-114</t>
+    <t>114</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCGAGCATG</t>
   </si>
   <si>
-    <t>Thread-107</t>
+    <t>107</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCGACAGTG</t>
   </si>
   <si>
-    <t>Thread-49</t>
+    <t>49</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAGTTGACT</t>
   </si>
   <si>
-    <t>Thread-82</t>
+    <t>82</t>
   </si>
   <si>
     <t xml:space="preserve"> AATTGGAGAG</t>
   </si>
   <si>
-    <t>Thread-56</t>
+    <t>56</t>
   </si>
   <si>
     <t xml:space="preserve"> TGGCTAGAGT</t>
   </si>
   <si>
-    <t>Thread-133</t>
+    <t>133</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCGTCGGCG</t>
   </si>
   <si>
-    <t>Thread-85</t>
+    <t>85</t>
   </si>
   <si>
     <t xml:space="preserve"> GCATCGGCAC</t>
   </si>
   <si>
-    <t>Thread-122</t>
+    <t>122</t>
   </si>
   <si>
     <t xml:space="preserve"> CCTGTTCCGA</t>
   </si>
   <si>
-    <t>Thread-13</t>
+    <t>13</t>
   </si>
   <si>
     <t xml:space="preserve"> CCCGTTCCGA</t>
   </si>
   <si>
-    <t>Thread-125</t>
+    <t>125</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGGGACCC</t>
   </si>
   <si>
-    <t>Thread-137</t>
+    <t>137</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCGACAGTG</t>
   </si>
   <si>
-    <t>Thread-138</t>
-  </si>
-  <si>
-    <t>Thread-132</t>
+    <t>138</t>
+  </si>
+  <si>
+    <t>132</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGCGATGCT</t>
   </si>
   <si>
-    <t>Thread-134</t>
-  </si>
-  <si>
-    <t>Thread-115</t>
-  </si>
-  <si>
-    <t>Thread-141</t>
+    <t>134</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>141</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCCATAGTT</t>
   </si>
   <si>
-    <t>Thread-143</t>
+    <t>143</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTAGGACCC</t>
   </si>
   <si>
-    <t>Thread-118</t>
+    <t>118</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCGTTGACT</t>
   </si>
   <si>
-    <t>Thread-144</t>
+    <t>144</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCGTTGATG</t>
   </si>
   <si>
-    <t>Thread-136</t>
+    <t>136</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCGTTCCGG</t>
   </si>
   <si>
-    <t>Thread-145</t>
+    <t>145</t>
   </si>
   <si>
     <t xml:space="preserve"> GTGCTGCATG</t>
   </si>
   <si>
-    <t>Thread-139</t>
+    <t>139</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGCTTCCCT</t>
   </si>
   <si>
-    <t>Thread-140</t>
+    <t>140</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTTACGGCT</t>
   </si>
   <si>
-    <t>Thread-127</t>
-  </si>
-  <si>
-    <t>Thread-142</t>
+    <t>127</t>
+  </si>
+  <si>
+    <t>142</t>
   </si>
   <si>
     <t xml:space="preserve"> CCTGTTCCCG</t>
   </si>
   <si>
-    <t>Thread-148</t>
+    <t>148</t>
   </si>
   <si>
     <t xml:space="preserve"> CCCGAGCATG</t>
   </si>
   <si>
-    <t>Thread-135</t>
+    <t>135</t>
   </si>
   <si>
     <t xml:space="preserve"> TAGGAGCATC</t>
   </si>
   <si>
-    <t>Thread-124</t>
-  </si>
-  <si>
-    <t>Thread-146</t>
+    <t>124</t>
+  </si>
+  <si>
+    <t>146</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGCTTCGCT</t>
   </si>
   <si>
-    <t>Thread-147</t>
+    <t>147</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCGATAGTG</t>
   </si>
   <si>
-    <t>Thread-149</t>
+    <t>149</t>
   </si>
   <si>
     <t xml:space="preserve"> TAGGAGCATT</t>
   </si>
   <si>
-    <t>Thread-152</t>
+    <t>152</t>
   </si>
   <si>
     <t xml:space="preserve"> CCTGAGCATG</t>
   </si>
   <si>
-    <t>Thread-153</t>
+    <t>153</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCGAGCGTG</t>
   </si>
   <si>
-    <t>Thread-151</t>
+    <t>151</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTCTTCGCT</t>
   </si>
   <si>
-    <t>Thread-150</t>
+    <t>150</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCCTTAGTG</t>
   </si>
   <si>
-    <t>Thread-156</t>
+    <t>156</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCGTTAGTG</t>
   </si>
   <si>
-    <t>Thread-154</t>
+    <t>154</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGGTTAGTG</t>
   </si>
   <si>
-    <t>Thread-155</t>
-  </si>
-  <si>
-    <t>Thread-157</t>
+    <t>155</t>
+  </si>
+  <si>
+    <t>157</t>
   </si>
 </sst>
 </file>
